--- a/src/test/resources/sign_up_data.xlsx
+++ b/src/test/resources/sign_up_data.xlsx
@@ -74,11 +74,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="8.5898876404"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.8898876404"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.2898876404"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="21.7898876404"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.0898876404"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.9898876404"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.6898876404"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.1898876404"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.5898876404"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.9898876404"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7898876404"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="8.5898876404"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.0898876404"/>
   </cols>
@@ -128,62 +128,62 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>Brady</t>
+          <t>Donal</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>Skottle</t>
+          <t>Chapell</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>4xsC4B</t>
+          <t>68ZJsdo0VY0</t>
         </is>
       </c>
       <c r="D2" s="0" t="inlineStr">
         <is>
-          <t>12242 Birchwood Drive</t>
+          <t>9209 Monica Pass</t>
         </is>
       </c>
       <c r="E2" s="0" t="inlineStr">
         <is>
-          <t>Durham</t>
+          <t>Las Vegas</t>
         </is>
       </c>
       <c r="F2" s="0" t="inlineStr">
         <is>
-          <t>North Carolina</t>
+          <t>Nevada</t>
         </is>
       </c>
       <c r="G2" s="0" t="n">
-        <v>27710</v>
+        <v>89120</v>
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>919-706-3546</t>
+          <t>702-376-2403</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>Denny</t>
+          <t>Kyle</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>Silbert</t>
+          <t>Sandbatch</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>NNPjBTv</t>
+          <t>O9Pfii</t>
         </is>
       </c>
       <c r="D3" s="0" t="inlineStr">
         <is>
-          <t>0089 East Park</t>
+          <t>1942 Morrow Court</t>
         </is>
       </c>
       <c r="E3" s="0" t="inlineStr">
@@ -197,238 +197,238 @@
         </is>
       </c>
       <c r="G3" s="0" t="n">
-        <v>97296</v>
+        <v>97216</v>
       </c>
       <c r="H3" s="0" t="inlineStr">
         <is>
-          <t>503-680-7596</t>
+          <t>503-509-3208</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>Kelsi</t>
+          <t>Barde</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>MacElroy</t>
+          <t>Sellman</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>Tcshdf</t>
+          <t>M0UgSe2J</t>
         </is>
       </c>
       <c r="D4" s="0" t="inlineStr">
         <is>
-          <t>2629 Clyde Gallagher Circle</t>
+          <t>0855 Sauthoff Plaza</t>
         </is>
       </c>
       <c r="E4" s="0" t="inlineStr">
         <is>
-          <t>Shawnee Mission</t>
+          <t>Memphis</t>
         </is>
       </c>
       <c r="F4" s="0" t="inlineStr">
         <is>
-          <t>Kansas</t>
+          <t>Tennessee</t>
         </is>
       </c>
       <c r="G4" s="0" t="n">
-        <v>66225</v>
+        <v>38131</v>
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>913-936-7631</t>
+          <t>901-431-4777</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>Annmaria</t>
+          <t>Jule</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>Philipard</t>
+          <t>Drage</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>lH3v3NRbsj</t>
+          <t>gsNrjJKRy</t>
         </is>
       </c>
       <c r="D5" s="0" t="inlineStr">
         <is>
-          <t>53159 Rigney Court</t>
+          <t>14 Merry Hill</t>
         </is>
       </c>
       <c r="E5" s="0" t="inlineStr">
         <is>
-          <t>Saint Cloud</t>
+          <t>Salt Lake City</t>
         </is>
       </c>
       <c r="F5" s="0" t="inlineStr">
         <is>
-          <t>Minnesota</t>
+          <t>Utah</t>
         </is>
       </c>
       <c r="G5" s="0" t="n">
-        <v>56372</v>
+        <v>84170</v>
       </c>
       <c r="H5" s="0" t="inlineStr">
         <is>
-          <t>320-727-3611</t>
+          <t>801-621-8498</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>Karisa</t>
+          <t>Bearnard</t>
         </is>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>Seyfart</t>
+          <t>Brayne</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>HCSDswIQF</t>
+          <t>CYBQKqKG</t>
         </is>
       </c>
       <c r="D6" s="0" t="inlineStr">
         <is>
-          <t>8376 Lien Terrace</t>
+          <t>7111 Rockefeller Center</t>
         </is>
       </c>
       <c r="E6" s="0" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>Hialeah</t>
         </is>
       </c>
       <c r="F6" s="0" t="inlineStr">
         <is>
-          <t>District of Columbia</t>
+          <t>Florida</t>
         </is>
       </c>
       <c r="G6" s="0" t="n">
-        <v>20442</v>
+        <v>33013</v>
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>202-919-9290</t>
+          <t>305-357-1590</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>Dougie</t>
+          <t>Malanie</t>
         </is>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>Thirst</t>
+          <t>Doding</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>ohlSXuB</t>
+          <t>oEOYSu</t>
         </is>
       </c>
       <c r="D7" s="0" t="inlineStr">
         <is>
-          <t>90313 Hermina Pass</t>
+          <t>121 Melrose Hill</t>
         </is>
       </c>
       <c r="E7" s="0" t="inlineStr">
         <is>
-          <t>Fort Lauderdale</t>
+          <t>Phoenix</t>
         </is>
       </c>
       <c r="F7" s="0" t="inlineStr">
         <is>
-          <t>Florida</t>
+          <t>Arizona</t>
         </is>
       </c>
       <c r="G7" s="0" t="n">
-        <v>33355</v>
+        <v>85030</v>
       </c>
       <c r="H7" s="0" t="inlineStr">
         <is>
-          <t>754-510-2472</t>
+          <t>602-412-9517</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>Viva</t>
+          <t>Cecil</t>
         </is>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>Worvill</t>
+          <t>Climo</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>zg08aJIic</t>
+          <t>ldlC6Lx13H</t>
         </is>
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
-          <t>04 Glacier Hill Place</t>
+          <t>8 Vernon Place</t>
         </is>
       </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
-          <t>Pueblo</t>
+          <t>Erie</t>
         </is>
       </c>
       <c r="F8" s="0" t="inlineStr">
         <is>
-          <t>Colorado</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="G8" s="0" t="n">
-        <v>81010</v>
+        <v>16550</v>
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>719-880-6656</t>
+          <t>814-831-2731</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>Roddie</t>
+          <t>Lizbeth</t>
         </is>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>Yarwood</t>
+          <t>Gaitley</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>vK9fjl67QvxN</t>
+          <t>VWmjWg3qqlOI</t>
         </is>
       </c>
       <c r="D9" s="0" t="inlineStr">
         <is>
-          <t>660 Tony Court</t>
+          <t>97 Cardinal Junction</t>
         </is>
       </c>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>Oakland</t>
+          <t>Pasadena</t>
         </is>
       </c>
       <c r="F9" s="0" t="inlineStr">
@@ -437,491 +437,491 @@
         </is>
       </c>
       <c r="G9" s="0" t="n">
-        <v>94622</v>
+        <v>91131</v>
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
-          <t>510-209-9144</t>
+          <t>626-896-1418</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>Vincents</t>
+          <t>Valenka</t>
         </is>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>Pashley</t>
+          <t>Ivashev</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>UiqDCIAR3UK</t>
+          <t>mGuvdK1cR9YU</t>
         </is>
       </c>
       <c r="D10" s="0" t="inlineStr">
         <is>
-          <t>31200 Troy Trail</t>
+          <t>432 Wayridge Park</t>
         </is>
       </c>
       <c r="E10" s="0" t="inlineStr">
         <is>
-          <t>El Paso</t>
+          <t>Miami</t>
         </is>
       </c>
       <c r="F10" s="0" t="inlineStr">
         <is>
-          <t>Texas</t>
+          <t>Florida</t>
         </is>
       </c>
       <c r="G10" s="0" t="n">
-        <v>79928</v>
+        <v>33142</v>
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>915-520-6541</t>
+          <t>786-944-0261</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>Shelbi</t>
+          <t>Del</t>
         </is>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>Spaducci</t>
+          <t>Vanes</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>8av3bF</t>
+          <t>bZGy34gz</t>
         </is>
       </c>
       <c r="D11" s="0" t="inlineStr">
         <is>
-          <t>69 Clyde Gallagher Parkway</t>
+          <t>93 Rusk Point</t>
         </is>
       </c>
       <c r="E11" s="0" t="inlineStr">
         <is>
-          <t>Kansas City</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="F11" s="0" t="inlineStr">
         <is>
-          <t>Missouri</t>
+          <t>California</t>
         </is>
       </c>
       <c r="G11" s="0" t="n">
-        <v>64125</v>
+        <v>90010</v>
       </c>
       <c r="H11" s="0" t="inlineStr">
         <is>
-          <t>816-701-6530</t>
+          <t>818-149-0703</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>Rahal</t>
+          <t>Mose</t>
         </is>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>Gonning</t>
+          <t>Vines</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
         <is>
-          <t>X7mkCQi</t>
+          <t>pWzAUqs7UXM</t>
         </is>
       </c>
       <c r="D12" s="0" t="inlineStr">
         <is>
-          <t>542 Dixon Pass</t>
+          <t>3 Truax Plaza</t>
         </is>
       </c>
       <c r="E12" s="0" t="inlineStr">
         <is>
-          <t>Pensacola</t>
+          <t>Marietta</t>
         </is>
       </c>
       <c r="F12" s="0" t="inlineStr">
         <is>
-          <t>Florida</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="G12" s="0" t="n">
-        <v>32505</v>
+        <v>30066</v>
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>850-112-6836</t>
+          <t>770-739-4710</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>Bevan</t>
+          <t>Hewet</t>
         </is>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>Erskin</t>
+          <t>Woof</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
         <is>
-          <t>FFVNKpujgXY</t>
+          <t>ZAurrZe</t>
         </is>
       </c>
       <c r="D13" s="0" t="inlineStr">
         <is>
-          <t>43 Gateway Point</t>
+          <t>57 Parkside Road</t>
         </is>
       </c>
       <c r="E13" s="0" t="inlineStr">
         <is>
-          <t>Inglewood</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="F13" s="0" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>Alabama</t>
         </is>
       </c>
       <c r="G13" s="0" t="n">
-        <v>90305</v>
+        <v>35215</v>
       </c>
       <c r="H13" s="0" t="inlineStr">
         <is>
-          <t>323-941-4779</t>
+          <t>205-127-7485</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
         <is>
-          <t>Abdel</t>
+          <t>Llewellyn</t>
         </is>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>Souten</t>
+          <t>Miche</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
         <is>
-          <t>xKjd5aaB8</t>
+          <t>u7zufyxcxug</t>
         </is>
       </c>
       <c r="D14" s="0" t="inlineStr">
         <is>
-          <t>6242 Kedzie Center</t>
+          <t>7770 Mayfield Hill</t>
         </is>
       </c>
       <c r="E14" s="0" t="inlineStr">
         <is>
-          <t>San Antonio</t>
+          <t>Atlanta</t>
         </is>
       </c>
       <c r="F14" s="0" t="inlineStr">
         <is>
-          <t>Texas</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="G14" s="0" t="n">
-        <v>78215</v>
+        <v>30358</v>
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>210-130-5583</t>
+          <t>404-387-7510</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="inlineStr">
         <is>
-          <t>Jenna</t>
+          <t>Nicolas</t>
         </is>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>Iacobacci</t>
+          <t>Jan</t>
         </is>
       </c>
       <c r="C15" s="0" t="inlineStr">
         <is>
-          <t>R9EEeyX4Ii</t>
+          <t>LWj8v4Msblr</t>
         </is>
       </c>
       <c r="D15" s="0" t="inlineStr">
         <is>
-          <t>168 Grayhawk Parkway</t>
+          <t>221 Northwestern Plaza</t>
         </is>
       </c>
       <c r="E15" s="0" t="inlineStr">
         <is>
-          <t>Kansas City</t>
+          <t>Denver</t>
         </is>
       </c>
       <c r="F15" s="0" t="inlineStr">
         <is>
-          <t>Missouri</t>
+          <t>Colorado</t>
         </is>
       </c>
       <c r="G15" s="0" t="n">
-        <v>64153</v>
+        <v>80217</v>
       </c>
       <c r="H15" s="0" t="inlineStr">
         <is>
-          <t>816-879-5568</t>
+          <t>303-612-3054</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="inlineStr">
         <is>
-          <t>Carla</t>
+          <t>Eyde</t>
         </is>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>Jopke</t>
+          <t>Wabersich</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
         <is>
-          <t>aTj7rb0xrD7</t>
+          <t>DMnN8jSNxw</t>
         </is>
       </c>
       <c r="D16" s="0" t="inlineStr">
         <is>
-          <t>66 Lyons Trail</t>
+          <t>6 Magdeline Road</t>
         </is>
       </c>
       <c r="E16" s="0" t="inlineStr">
         <is>
-          <t>Minneapolis</t>
+          <t>Pasadena</t>
         </is>
       </c>
       <c r="F16" s="0" t="inlineStr">
         <is>
-          <t>Minnesota</t>
+          <t>California</t>
         </is>
       </c>
       <c r="G16" s="0" t="n">
-        <v>55448</v>
+        <v>91117</v>
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>763-533-9572</t>
+          <t>626-394-6298</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="inlineStr">
         <is>
-          <t>Ottilie</t>
+          <t>Pattie</t>
         </is>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>de Mendoza</t>
+          <t>Kennaway</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
         <is>
-          <t>Ady8T4P37AIC</t>
+          <t>vRKg3R</t>
         </is>
       </c>
       <c r="D17" s="0" t="inlineStr">
         <is>
-          <t>83435 Claremont Crossing</t>
+          <t>3878 Thackeray Way</t>
         </is>
       </c>
       <c r="E17" s="0" t="inlineStr">
         <is>
-          <t>Saint Paul</t>
+          <t>West Palm Beach</t>
         </is>
       </c>
       <c r="F17" s="0" t="inlineStr">
         <is>
-          <t>Minnesota</t>
+          <t>Florida</t>
         </is>
       </c>
       <c r="G17" s="0" t="n">
-        <v>55127</v>
+        <v>33405</v>
       </c>
       <c r="H17" s="0" t="inlineStr">
         <is>
-          <t>651-449-6393</t>
+          <t>772-702-1291</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="inlineStr">
         <is>
-          <t>Phylis</t>
+          <t>Lynnett</t>
         </is>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>Gollard</t>
+          <t>Whittam</t>
         </is>
       </c>
       <c r="C18" s="0" t="inlineStr">
         <is>
-          <t>hv7ZdYHbhSKq</t>
+          <t>NmMRXT0lIrjW</t>
         </is>
       </c>
       <c r="D18" s="0" t="inlineStr">
         <is>
-          <t>63 Nova Point</t>
+          <t>3 Jenna Road</t>
         </is>
       </c>
       <c r="E18" s="0" t="inlineStr">
         <is>
-          <t>Detroit</t>
+          <t>Garland</t>
         </is>
       </c>
       <c r="F18" s="0" t="inlineStr">
         <is>
-          <t>Michigan</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="G18" s="0" t="n">
-        <v>48242</v>
+        <v>75044</v>
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>734-476-4165</t>
+          <t>469-790-9943</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="inlineStr">
         <is>
-          <t>Janene</t>
+          <t>Luis</t>
         </is>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>Jocic</t>
+          <t>Simkovitz</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
         <is>
-          <t>4HyxOaLpXro</t>
+          <t>3PTFxc</t>
         </is>
       </c>
       <c r="D19" s="0" t="inlineStr">
         <is>
-          <t>0328 8th Court</t>
+          <t>34 Miller Pass</t>
         </is>
       </c>
       <c r="E19" s="0" t="inlineStr">
         <is>
-          <t>Aiken</t>
+          <t>Denver</t>
         </is>
       </c>
       <c r="F19" s="0" t="inlineStr">
         <is>
-          <t>South Carolina</t>
+          <t>Colorado</t>
         </is>
       </c>
       <c r="G19" s="0" t="n">
-        <v>29805</v>
+        <v>80262</v>
       </c>
       <c r="H19" s="0" t="inlineStr">
         <is>
-          <t>803-564-4860</t>
+          <t>303-372-9044</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="inlineStr">
         <is>
-          <t>Parke</t>
+          <t>Fanni</t>
         </is>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>Ellum</t>
+          <t>Geggus</t>
         </is>
       </c>
       <c r="C20" s="0" t="inlineStr">
         <is>
-          <t>pyxb6wnOe</t>
+          <t>Cz8phF9Yoi</t>
         </is>
       </c>
       <c r="D20" s="0" t="inlineStr">
         <is>
-          <t>759 Melby Park</t>
+          <t>9 6th Drive</t>
         </is>
       </c>
       <c r="E20" s="0" t="inlineStr">
         <is>
-          <t>Louisville</t>
+          <t>Pittsburgh</t>
         </is>
       </c>
       <c r="F20" s="0" t="inlineStr">
         <is>
-          <t>Kentucky</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="G20" s="0" t="n">
-        <v>40225</v>
+        <v>15205</v>
       </c>
       <c r="H20" s="0" t="inlineStr">
         <is>
-          <t>502-525-8336</t>
+          <t>412-206-6599</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="inlineStr">
         <is>
-          <t>Giffie</t>
+          <t>Juliette</t>
         </is>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>Schollick</t>
+          <t>Geffe</t>
         </is>
       </c>
       <c r="C21" s="0" t="inlineStr">
         <is>
-          <t>NtbVi7</t>
+          <t>dcs8Log5Dr1q</t>
         </is>
       </c>
       <c r="D21" s="0" t="inlineStr">
         <is>
-          <t>69081 Crownhardt Trail</t>
+          <t>57398 Northport Place</t>
         </is>
       </c>
       <c r="E21" s="0" t="inlineStr">
         <is>
-          <t>Philadelphia</t>
+          <t>Columbia</t>
         </is>
       </c>
       <c r="F21" s="0" t="inlineStr">
         <is>
-          <t>Pennsylvania</t>
+          <t>Missouri</t>
         </is>
       </c>
       <c r="G21" s="0" t="n">
-        <v>19109</v>
+        <v>65218</v>
       </c>
       <c r="H21" s="0" t="inlineStr">
         <is>
-          <t>610-688-3769</t>
+          <t>573-861-1461</t>
         </is>
       </c>
     </row>
